--- a/bom/Erwhi_Hedgehog_BOM.xlsx
+++ b/bom/Erwhi_Hedgehog_BOM.xlsx
@@ -6,20 +6,20 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="ERWHI BOM - ERWHI HEDGEHOG BOM " sheetId="1" r:id="rId4"/>
-    <sheet name="JACK CABLE - BOM for 1 Jack Cab" sheetId="2" r:id="rId5"/>
-    <sheet name="POWER CABLE - BOM for 1 Power C" sheetId="3" r:id="rId6"/>
-    <sheet name="POWER SWITCH - BOM for 1 Power " sheetId="4" r:id="rId7"/>
-    <sheet name="EXT DC Plug - BOM for 1 EXT DC " sheetId="5" r:id="rId8"/>
-    <sheet name="MOTOR - BOM for 1 Motor with ca" sheetId="6" r:id="rId9"/>
-    <sheet name="ENCODER CABLE - BOM for 1 encod" sheetId="7" r:id="rId10"/>
-    <sheet name="SENGI-UP CABLE - BOM for 1 SENG" sheetId="8" r:id="rId11"/>
+    <sheet name="ERWHI BOM" sheetId="1" r:id="rId4"/>
+    <sheet name="JACK CABLE" sheetId="2" r:id="rId5"/>
+    <sheet name="POWER CABLE" sheetId="3" r:id="rId6"/>
+    <sheet name="POWER SWITCH" sheetId="4" r:id="rId7"/>
+    <sheet name="EXT DC Plug" sheetId="5" r:id="rId8"/>
+    <sheet name="MOTOR" sheetId="6" r:id="rId9"/>
+    <sheet name="ENCODER CABLE" sheetId="7" r:id="rId10"/>
+    <sheet name="SENGI-UP CABLE" sheetId="8" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
   <si>
     <t>ERWHI HEDGEHOG BOM rev. Apr 2019</t>
   </si>
@@ -27,6 +27,9 @@
     <t>Component</t>
   </si>
   <si>
+    <t>BOM ID</t>
+  </si>
+  <si>
     <t>Productor</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
   </si>
   <si>
     <t>UP2</t>
+  </si>
+  <si>
+    <t>T1#1</t>
   </si>
   <si>
     <t>AAEON</t>
@@ -68,6 +74,9 @@
     <t>AI Core X</t>
   </si>
   <si>
+    <t>T1#2</t>
+  </si>
+  <si>
     <t>PER-TAICX-A10-001</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t>WiFi kit</t>
   </si>
   <si>
+    <t>T1#3</t>
+  </si>
+  <si>
     <t>RE-UPWFKITEXAR1</t>
   </si>
   <si>
@@ -102,6 +114,9 @@
     <t>D435</t>
   </si>
   <si>
+    <t>T1#4</t>
+  </si>
+  <si>
     <t>Intel</t>
   </si>
   <si>
@@ -125,6 +140,9 @@
     <t>USBC - USB3A 25cm angle cable</t>
   </si>
   <si>
+    <t>T1#5</t>
+  </si>
+  <si>
     <t>Openll</t>
   </si>
   <si>
@@ -148,6 +166,9 @@
     <t>Chassis</t>
   </si>
   <si>
+    <t>T1#6</t>
+  </si>
+  <si>
     <t>check docs</t>
   </si>
   <si>
@@ -171,6 +192,9 @@
     <t>Sengi</t>
   </si>
   <si>
+    <t>T1#7</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -185,6 +209,9 @@
     <t>Sengi-Up Cable</t>
   </si>
   <si>
+    <t>T1#8</t>
+  </si>
+  <si>
     <t>check SENGI-UP sheet</t>
   </si>
   <si>
@@ -205,6 +232,9 @@
     <t>Encoder</t>
   </si>
   <si>
+    <t>T1#9</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -219,7 +249,13 @@
     <t>Magnet Bracket</t>
   </si>
   <si>
+    <t>T1#10</t>
+  </si>
+  <si>
     <t>Magnet</t>
+  </si>
+  <si>
+    <t>T1#11</t>
   </si>
   <si>
     <t>MTS magnete</t>
@@ -242,16 +278,25 @@
     <t>Encoder Cable</t>
   </si>
   <si>
+    <t>T1#12</t>
+  </si>
+  <si>
     <t>check ENCODER CABLE sheet</t>
   </si>
   <si>
     <t>Motor with cables and connector</t>
   </si>
   <si>
+    <t>T1#13</t>
+  </si>
+  <si>
     <t>check MOTOR sheet</t>
   </si>
   <si>
     <t>Motor brackets kit</t>
+  </si>
+  <si>
+    <t>T1#14</t>
   </si>
   <si>
     <t>Pololu</t>
@@ -274,6 +319,9 @@
     <t>Wheels kit</t>
   </si>
   <si>
+    <t>T1#15</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -288,6 +336,9 @@
     <t>Omniwheel</t>
   </si>
   <si>
+    <t>T1#16</t>
+  </si>
+  <si>
     <t>Nexus Robot</t>
   </si>
   <si>
@@ -308,7 +359,13 @@
     <t>Shaft (∅3 40mm)</t>
   </si>
   <si>
+    <t>T1#17</t>
+  </si>
+  <si>
     <t>Ball caster</t>
+  </si>
+  <si>
+    <t>T1#18</t>
   </si>
   <si>
     <r>
@@ -325,6 +382,9 @@
     <t>Battery Holder</t>
   </si>
   <si>
+    <t>T1#19</t>
+  </si>
+  <si>
     <t>MPD</t>
   </si>
   <si>
@@ -345,16 +405,25 @@
     <t>Power Switch with cables</t>
   </si>
   <si>
+    <t>T1#20</t>
+  </si>
+  <si>
     <t>check POWER SWITCH sheet</t>
   </si>
   <si>
     <t>EXT DC Plug with cables</t>
   </si>
   <si>
+    <t>T1#21</t>
+  </si>
+  <si>
     <t>check EXT DC Plug sheet</t>
   </si>
   <si>
     <t>Wago 221-412</t>
+  </si>
+  <si>
+    <t>T1#22</t>
   </si>
   <si>
     <t>Wago</t>
@@ -377,6 +446,9 @@
     <t>Wago 221-413</t>
   </si>
   <si>
+    <t>T1#23</t>
+  </si>
+  <si>
     <t>221-413</t>
   </si>
   <si>
@@ -394,16 +466,25 @@
     <t>Power Cable</t>
   </si>
   <si>
+    <t>T1#24</t>
+  </si>
+  <si>
     <t>check POWER CABLE sheet</t>
   </si>
   <si>
     <t>Jack Cable</t>
   </si>
   <si>
+    <t>T1#25</t>
+  </si>
+  <si>
     <t>check JACK CABLE sheet</t>
   </si>
   <si>
     <t>Standoff M2.5x6</t>
+  </si>
+  <si>
+    <t>T1#26</t>
   </si>
   <si>
     <t>Dremec</t>
@@ -426,6 +507,9 @@
     <t>Standoff M2.5x15</t>
   </si>
   <si>
+    <t>T1#27</t>
+  </si>
+  <si>
     <t>212X15</t>
   </si>
   <si>
@@ -443,6 +527,9 @@
     <t>Standoff M2.5x20</t>
   </si>
   <si>
+    <t>T1#28</t>
+  </si>
+  <si>
     <t>212X20</t>
   </si>
   <si>
@@ -460,6 +547,9 @@
     <t>NUTS M2.5</t>
   </si>
   <si>
+    <t>T1#29</t>
+  </si>
+  <si>
     <t>Accu</t>
   </si>
   <si>
@@ -480,6 +570,9 @@
     <t xml:space="preserve">SCREW M2.5x8  ISO7380 </t>
   </si>
   <si>
+    <t>T1#30</t>
+  </si>
+  <si>
     <t>SSB-M2.5-8-A4</t>
   </si>
   <si>
@@ -497,6 +590,9 @@
     <t>SCREW M2.5x10  ISO7381</t>
   </si>
   <si>
+    <t>T1#31</t>
+  </si>
+  <si>
     <t>SSB-M2.5-10-A2</t>
   </si>
   <si>
@@ -514,6 +610,9 @@
     <t>SCREW M3x6 Philips</t>
   </si>
   <si>
+    <t>T1#32</t>
+  </si>
+  <si>
     <t>Bossard</t>
   </si>
   <si>
@@ -557,6 +656,9 @@
     <t>CONN VH 2POS</t>
   </si>
   <si>
+    <t>T2#1</t>
+  </si>
+  <si>
     <t>JST Sales America Inc</t>
   </si>
   <si>
@@ -577,6 +679,9 @@
     <t>CABLE VH 6”</t>
   </si>
   <si>
+    <t>T2#2</t>
+  </si>
+  <si>
     <t>ASVHSVH16K152</t>
   </si>
   <si>
@@ -594,6 +699,9 @@
     <t>Power Jack angle</t>
   </si>
   <si>
+    <t>T2#3</t>
+  </si>
+  <si>
     <t>Lumberg</t>
   </si>
   <si>
@@ -614,10 +722,19 @@
     <t>BOM for 1 Power Cable assembly</t>
   </si>
   <si>
+    <t>T3#1</t>
+  </si>
+  <si>
+    <t>T3#2</t>
+  </si>
+  <si>
     <t>BOM for 1 Power Switch assembly</t>
   </si>
   <si>
     <t>POWER SWITCH</t>
+  </si>
+  <si>
+    <t>T4#1</t>
   </si>
   <si>
     <t>E-Switch</t>
@@ -640,10 +757,16 @@
     <t>22 AWG WIRE</t>
   </si>
   <si>
+    <t>T4#2</t>
+  </si>
+  <si>
     <t>BOM for 1 EXT DC Plug assembly</t>
   </si>
   <si>
     <t>CONN PWR JACK</t>
+  </si>
+  <si>
+    <t>T5#1</t>
   </si>
   <si>
     <t>EJ501A</t>
@@ -660,10 +783,16 @@
     </r>
   </si>
   <si>
+    <t>T5#2</t>
+  </si>
+  <si>
     <t>BOM for 1 Motor with cables</t>
   </si>
   <si>
     <t xml:space="preserve"> SH cable 6”</t>
+  </si>
+  <si>
+    <t>T6#1</t>
   </si>
   <si>
     <t>ASSHSSH28K152</t>
@@ -683,6 +812,9 @@
     <t>CONN SH 2POS</t>
   </si>
   <si>
+    <t>T6#2</t>
+  </si>
+  <si>
     <t>SHR-02V-S-B</t>
   </si>
   <si>
@@ -700,6 +832,9 @@
     <t>Motor 150:1 dual shaft HPCB</t>
   </si>
   <si>
+    <t>T6#3</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -717,6 +852,9 @@
     <t xml:space="preserve"> SH cable 2”</t>
   </si>
   <si>
+    <t>T7#1</t>
+  </si>
+  <si>
     <t>ASSHSSH28K51</t>
   </si>
   <si>
@@ -734,6 +872,9 @@
     <t>CONN SH 4POS</t>
   </si>
   <si>
+    <t>T7#2</t>
+  </si>
+  <si>
     <t>SHR-04V-S-B</t>
   </si>
   <si>
@@ -751,7 +892,13 @@
     <t>BOM for 1 SENGI-UP cable</t>
   </si>
   <si>
+    <t>T8#1</t>
+  </si>
+  <si>
     <t>CONN SH 10POS</t>
+  </si>
+  <si>
+    <t>T8#2</t>
   </si>
   <si>
     <t>SHR-10V-S-B</t>
@@ -847,6 +994,21 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
@@ -880,7 +1042,7 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -917,28 +1079,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -954,34 +1101,43 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -2087,21 +2243,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F38"/>
+  <dimension ref="A2:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="30.0703" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7188" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.9531" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.9375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.8672" style="1" customWidth="1"/>
-    <col min="6" max="6" width="119.586" style="1" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.76562" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7188" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.9531" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.9375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.8672" style="1" customWidth="1"/>
+    <col min="7" max="7" width="119.586" style="1" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -2113,6 +2270,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -2133,727 +2291,830 @@
       <c r="F2" t="s" s="3">
         <v>6</v>
       </c>
+      <c r="G2" t="s" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s" s="12">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s" s="12">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="9">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="11">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s" s="12">
+        <v>25</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s" s="12">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s" s="12">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="9">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s" s="12">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" t="s" s="9">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s" s="12">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="9">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s" s="10">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s" s="12">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="9">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="E12" s="13">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s" s="12">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" t="s" s="9">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s" s="12">
+        <v>56</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s" s="12">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s" s="10">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s" s="11">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="E14" s="13">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s" s="12">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s" s="10">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s" s="11">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="E15" s="13">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s" s="12">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s" s="10">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s" s="11">
+        <v>66</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1086</v>
+      </c>
+      <c r="E16" s="13">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s" s="12">
+        <v>67</v>
+      </c>
+      <c r="G16" t="s" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s" s="11">
+        <v>66</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1425</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s" s="12">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" t="s" s="9">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s" s="11">
+        <v>74</v>
+      </c>
+      <c r="D18" s="13">
+        <v>14108</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s" s="12">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s" s="12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" ht="20.35" customHeight="1">
+      <c r="A19" t="s" s="9">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s" s="10">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s" s="11">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s" s="12">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" t="s" s="9">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s" s="11">
+        <v>66</v>
+      </c>
+      <c r="D20" s="13">
+        <v>954</v>
+      </c>
+      <c r="E20" s="13">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s" s="12">
+        <v>67</v>
+      </c>
+      <c r="G20" t="s" s="12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="9">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s" s="11">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s" s="12">
+        <v>85</v>
+      </c>
+      <c r="E21" s="13">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s" s="12">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" t="s" s="9">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s" s="10">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s" s="11">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="E22" s="13">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s" s="12">
+        <v>46</v>
+      </c>
+      <c r="G22" t="s" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="9">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s" s="11">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="E23" s="13">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s" s="12">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" t="s" s="9">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s" s="10">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s" s="11">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s" s="12">
+        <v>96</v>
+      </c>
+      <c r="E24" s="13">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s" s="12">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s" s="12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="9">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s" s="10">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s" s="11">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s" s="12">
+        <v>100</v>
+      </c>
+      <c r="E25" s="13">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s" s="12">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s" s="12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" t="s" s="9">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s" s="10">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s" s="11">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="E26" s="13">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s" s="12">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="9">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s" s="10">
+        <v>106</v>
+      </c>
+      <c r="C27" t="s" s="11">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s" s="12">
+        <v>46</v>
+      </c>
+      <c r="G27" t="s" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" t="s" s="9">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s" s="10">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s" s="11">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s" s="12">
+        <v>111</v>
+      </c>
+      <c r="E28" s="13">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s" s="12">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s" s="12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" t="s" s="9">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s" s="10">
+        <v>114</v>
+      </c>
+      <c r="C29" t="s" s="11">
+        <v>110</v>
+      </c>
+      <c r="D29" t="s" s="12">
+        <v>115</v>
+      </c>
+      <c r="E29" s="13">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s" s="12">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s" s="12">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" t="s" s="9">
+        <v>117</v>
+      </c>
+      <c r="B30" t="s" s="10">
+        <v>118</v>
+      </c>
+      <c r="C30" t="s" s="11">
+        <v>110</v>
+      </c>
+      <c r="D30" t="s" s="12">
+        <v>119</v>
+      </c>
+      <c r="E30" s="13">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s" s="12">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" t="s" s="9">
+        <v>121</v>
+      </c>
+      <c r="B31" t="s" s="10">
+        <v>122</v>
+      </c>
+      <c r="C31" t="s" s="11">
+        <v>123</v>
+      </c>
+      <c r="D31" t="s" s="12">
+        <v>124</v>
+      </c>
+      <c r="E31" s="13">
+        <v>28</v>
+      </c>
+      <c r="F31" t="s" s="12">
+        <v>123</v>
+      </c>
+      <c r="G31" t="s" s="12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" t="s" s="9">
+        <v>126</v>
+      </c>
+      <c r="B32" t="s" s="10">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s" s="11">
+        <v>123</v>
+      </c>
+      <c r="D32" t="s" s="12">
+        <v>128</v>
+      </c>
+      <c r="E32" s="13">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s" s="12">
+        <v>123</v>
+      </c>
+      <c r="G32" t="s" s="12">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" t="s" s="9">
+        <v>130</v>
+      </c>
+      <c r="B33" t="s" s="10">
+        <v>131</v>
+      </c>
+      <c r="C33" t="s" s="11">
+        <v>123</v>
+      </c>
+      <c r="D33" t="s" s="12">
+        <v>132</v>
+      </c>
+      <c r="E33" s="13">
         <v>8</v>
       </c>
-      <c r="C3" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s" s="10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s" s="10">
-        <v>20</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s" s="10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s" s="9">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s" s="10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s" s="10">
+      <c r="F33" t="s" s="12">
+        <v>123</v>
+      </c>
+      <c r="G33" t="s" s="12">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" t="s" s="9">
+        <v>134</v>
+      </c>
+      <c r="B34" t="s" s="10">
+        <v>135</v>
+      </c>
+      <c r="C34" t="s" s="11">
+        <v>136</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="13">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s" s="12">
+        <v>67</v>
+      </c>
+      <c r="G34" t="s" s="12">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" t="s" s="9">
+        <v>138</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" t="s" s="11">
+        <v>139</v>
+      </c>
+      <c r="D36" t="s" s="12">
+        <v>140</v>
+      </c>
+      <c r="E36" t="s" s="12">
+        <v>141</v>
+      </c>
+      <c r="F36" t="s" s="12">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s" s="10">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s" s="10">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="D11" s="11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="D12" s="11">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s" s="10">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s" s="9">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="D13" s="11">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s" s="10">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="8">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s" s="9">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="D14" s="11">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s" s="10">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="8">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s" s="9">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="D15" s="11">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s" s="10">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="B16" t="s" s="9">
-        <v>51</v>
-      </c>
-      <c r="C16" s="11">
-        <v>1086</v>
-      </c>
-      <c r="D16" s="11">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="F16" t="s" s="10">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="8">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s" s="9">
-        <v>51</v>
-      </c>
-      <c r="C17" s="11">
-        <v>1425</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="F17" t="s" s="10">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="8">
-        <v>56</v>
-      </c>
-      <c r="B18" t="s" s="9">
-        <v>57</v>
-      </c>
-      <c r="C18" s="11">
-        <v>14108</v>
-      </c>
-      <c r="D18" s="11">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="F18" t="s" s="10">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="B19" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="D19" s="11">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="F19" t="s" s="10">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="8">
-        <v>61</v>
-      </c>
-      <c r="B20" t="s" s="9">
-        <v>51</v>
-      </c>
-      <c r="C20" s="11">
-        <v>954</v>
-      </c>
-      <c r="D20" s="11">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="F20" t="s" s="10">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="8">
-        <v>63</v>
-      </c>
-      <c r="B21" t="s" s="9">
-        <v>64</v>
-      </c>
-      <c r="C21" t="s" s="10">
-        <v>65</v>
-      </c>
-      <c r="D21" s="11">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="F21" t="s" s="10">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="8">
-        <v>67</v>
-      </c>
-      <c r="B22" t="s" s="9">
-        <v>68</v>
-      </c>
-      <c r="C22" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="D22" s="11">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s" s="10">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="8">
-        <v>69</v>
-      </c>
-      <c r="B23" t="s" s="9">
-        <v>70</v>
-      </c>
-      <c r="C23" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="D23" s="11">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="F23" t="s" s="10">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="8">
-        <v>71</v>
-      </c>
-      <c r="B24" t="s" s="9">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s" s="10">
-        <v>73</v>
-      </c>
-      <c r="D24" s="11">
-        <v>4</v>
-      </c>
-      <c r="E24" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="F24" t="s" s="10">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="8">
-        <v>75</v>
-      </c>
-      <c r="B25" t="s" s="9">
-        <v>72</v>
-      </c>
-      <c r="C25" t="s" s="10">
-        <v>76</v>
-      </c>
-      <c r="D25" s="11">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="F25" t="s" s="10">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="8">
-        <v>78</v>
-      </c>
-      <c r="B26" t="s" s="9">
-        <v>79</v>
-      </c>
-      <c r="C26" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="D26" s="11">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="F26" t="s" s="10">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="8">
-        <v>80</v>
-      </c>
-      <c r="B27" t="s" s="9">
-        <v>81</v>
-      </c>
-      <c r="C27" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="D27" s="11">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="F27" t="s" s="10">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="8">
-        <v>82</v>
-      </c>
-      <c r="B28" t="s" s="9">
-        <v>83</v>
-      </c>
-      <c r="C28" t="s" s="10">
-        <v>84</v>
-      </c>
-      <c r="D28" s="11">
-        <v>5</v>
-      </c>
-      <c r="E28" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="F28" t="s" s="10">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="8">
-        <v>86</v>
-      </c>
-      <c r="B29" t="s" s="9">
-        <v>83</v>
-      </c>
-      <c r="C29" t="s" s="10">
-        <v>87</v>
-      </c>
-      <c r="D29" s="11">
-        <v>5</v>
-      </c>
-      <c r="E29" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="F29" t="s" s="10">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="8">
-        <v>89</v>
-      </c>
-      <c r="B30" t="s" s="9">
-        <v>83</v>
-      </c>
-      <c r="C30" t="s" s="10">
-        <v>90</v>
-      </c>
-      <c r="D30" s="11">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="F30" t="s" s="10">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="8">
-        <v>92</v>
-      </c>
-      <c r="B31" t="s" s="9">
-        <v>93</v>
-      </c>
-      <c r="C31" t="s" s="10">
-        <v>94</v>
-      </c>
-      <c r="D31" s="11">
-        <v>28</v>
-      </c>
-      <c r="E31" t="s" s="10">
-        <v>93</v>
-      </c>
-      <c r="F31" t="s" s="10">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="8">
-        <v>96</v>
-      </c>
-      <c r="B32" t="s" s="9">
-        <v>93</v>
-      </c>
-      <c r="C32" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="D32" s="11">
-        <v>9</v>
-      </c>
-      <c r="E32" t="s" s="10">
-        <v>93</v>
-      </c>
-      <c r="F32" t="s" s="10">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="8">
-        <v>99</v>
-      </c>
-      <c r="B33" t="s" s="9">
-        <v>93</v>
-      </c>
-      <c r="C33" t="s" s="10">
-        <v>100</v>
-      </c>
-      <c r="D33" s="11">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s" s="10">
-        <v>93</v>
-      </c>
-      <c r="F33" t="s" s="10">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="8">
-        <v>102</v>
-      </c>
-      <c r="B34" t="s" s="9">
-        <v>103</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="11">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="F34" t="s" s="10">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="8">
-        <v>105</v>
-      </c>
-      <c r="B36" t="s" s="9">
-        <v>106</v>
-      </c>
-      <c r="C36" t="s" s="10">
-        <v>107</v>
-      </c>
-      <c r="D36" t="s" s="10">
-        <v>108</v>
-      </c>
-      <c r="E36" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="F36" t="s" s="10">
-        <v>109</v>
+      <c r="G36" t="s" s="12">
+        <v>142</v>
       </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="F4" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="F5" r:id="rId3" location="" tooltip="" display=""/>
-    <hyperlink ref="F6" r:id="rId4" location="" tooltip="" display=""/>
-    <hyperlink ref="F7" r:id="rId5" location="" tooltip="" display=""/>
-    <hyperlink ref="F8" r:id="rId6" location="" tooltip="" display=""/>
-    <hyperlink ref="F9" r:id="rId7" location="" tooltip="" display=""/>
-    <hyperlink ref="F10" r:id="rId8" location="" tooltip="" display=""/>
-    <hyperlink ref="F11" r:id="rId9" location="" tooltip="" display=""/>
-    <hyperlink ref="F12" r:id="rId10" location="" tooltip="" display=""/>
-    <hyperlink ref="F13" r:id="rId11" location="" tooltip="" display=""/>
-    <hyperlink ref="F14" r:id="rId12" location="" tooltip="" display=""/>
-    <hyperlink ref="F15" r:id="rId13" location="" tooltip="" display=""/>
-    <hyperlink ref="F16" r:id="rId14" location="" tooltip="" display=""/>
-    <hyperlink ref="F17" r:id="rId15" location="" tooltip="" display=""/>
-    <hyperlink ref="F18" r:id="rId16" location="" tooltip="" display=""/>
-    <hyperlink ref="F19" r:id="rId17" location="" tooltip="" display=""/>
-    <hyperlink ref="F20" r:id="rId18" location="" tooltip="" display=""/>
-    <hyperlink ref="F21" r:id="rId19" location="" tooltip="" display=""/>
-    <hyperlink ref="F22" r:id="rId20" location="" tooltip="" display=""/>
-    <hyperlink ref="F23" r:id="rId21" location="" tooltip="" display=""/>
-    <hyperlink ref="F24" r:id="rId22" location="" tooltip="" display=""/>
-    <hyperlink ref="F25" r:id="rId23" location="" tooltip="" display=""/>
-    <hyperlink ref="F26" r:id="rId24" location="" tooltip="" display=""/>
-    <hyperlink ref="F27" r:id="rId25" location="" tooltip="" display=""/>
-    <hyperlink ref="F28" r:id="rId26" location="" tooltip="" display=""/>
-    <hyperlink ref="F29" r:id="rId27" location="" tooltip="" display=""/>
-    <hyperlink ref="F30" r:id="rId28" location="" tooltip="" display=""/>
-    <hyperlink ref="F31" r:id="rId29" location="" tooltip="" display=""/>
-    <hyperlink ref="F32" r:id="rId30" location="" tooltip="" display=""/>
-    <hyperlink ref="F33" r:id="rId31" location="" tooltip="" display=""/>
-    <hyperlink ref="F34" r:id="rId32" location="" tooltip="" display=""/>
-    <hyperlink ref="F36" r:id="rId33" location="" tooltip="" display=""/>
+    <hyperlink ref="G3" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="G4" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="G5" r:id="rId3" location="" tooltip="" display=""/>
+    <hyperlink ref="G6" r:id="rId4" location="" tooltip="" display=""/>
+    <hyperlink ref="G7" r:id="rId5" location="" tooltip="" display=""/>
+    <hyperlink ref="G8" r:id="rId6" location="" tooltip="" display=""/>
+    <hyperlink ref="G9" r:id="rId7" location="" tooltip="" display=""/>
+    <hyperlink ref="G10" r:id="rId8" location="" tooltip="" display=""/>
+    <hyperlink ref="G11" r:id="rId9" location="" tooltip="" display=""/>
+    <hyperlink ref="G12" r:id="rId10" location="" tooltip="" display=""/>
+    <hyperlink ref="G13" r:id="rId11" location="" tooltip="" display=""/>
+    <hyperlink ref="G14" r:id="rId12" location="" tooltip="" display=""/>
+    <hyperlink ref="G15" r:id="rId13" location="" tooltip="" display=""/>
+    <hyperlink ref="G16" r:id="rId14" location="" tooltip="" display=""/>
+    <hyperlink ref="G17" r:id="rId15" location="" tooltip="" display=""/>
+    <hyperlink ref="G18" r:id="rId16" location="" tooltip="" display=""/>
+    <hyperlink ref="G19" r:id="rId17" location="" tooltip="" display=""/>
+    <hyperlink ref="G20" r:id="rId18" location="" tooltip="" display=""/>
+    <hyperlink ref="G21" r:id="rId19" location="" tooltip="" display=""/>
+    <hyperlink ref="G22" r:id="rId20" location="" tooltip="" display=""/>
+    <hyperlink ref="G23" r:id="rId21" location="" tooltip="" display=""/>
+    <hyperlink ref="G24" r:id="rId22" location="" tooltip="" display=""/>
+    <hyperlink ref="G25" r:id="rId23" location="" tooltip="" display=""/>
+    <hyperlink ref="G26" r:id="rId24" location="" tooltip="" display=""/>
+    <hyperlink ref="G27" r:id="rId25" location="" tooltip="" display=""/>
+    <hyperlink ref="G28" r:id="rId26" location="" tooltip="" display=""/>
+    <hyperlink ref="G29" r:id="rId27" location="" tooltip="" display=""/>
+    <hyperlink ref="G30" r:id="rId28" location="" tooltip="" display=""/>
+    <hyperlink ref="G31" r:id="rId29" location="" tooltip="" display=""/>
+    <hyperlink ref="G32" r:id="rId30" location="" tooltip="" display=""/>
+    <hyperlink ref="G33" r:id="rId31" location="" tooltip="" display=""/>
+    <hyperlink ref="G34" r:id="rId32" location="" tooltip="" display=""/>
+    <hyperlink ref="G36" r:id="rId33" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -2868,32 +3129,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F5"/>
+  <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="15" customWidth="1"/>
-    <col min="2" max="2" width="18.3359" style="15" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="15" customWidth="1"/>
-    <col min="4" max="4" width="4.22656" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="15" customWidth="1"/>
-    <col min="6" max="6" width="81.7344" style="15" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="15" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="18" customWidth="1"/>
+    <col min="2" max="2" width="7.76562" style="18" customWidth="1"/>
+    <col min="3" max="3" width="18.3359" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="18" customWidth="1"/>
+    <col min="5" max="5" width="4.22656" style="18" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="18" customWidth="1"/>
+    <col min="7" max="7" width="81.7344" style="18" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -2914,75 +3177,87 @@
       <c r="F2" t="s" s="3">
         <v>6</v>
       </c>
+      <c r="G2" t="s" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s" s="5">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>113</v>
-      </c>
-      <c r="D3" s="7">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>147</v>
+      </c>
+      <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s" s="6">
-        <v>114</v>
+      <c r="F3" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s" s="7">
+        <v>148</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>115</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>116</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="A4" t="s" s="9">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s" s="10">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s" s="11">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>151</v>
+      </c>
+      <c r="E4" s="13">
         <v>2</v>
       </c>
-      <c r="E4" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s" s="10">
-        <v>117</v>
+      <c r="F4" t="s" s="12">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s" s="12">
+        <v>152</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>118</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>119</v>
-      </c>
-      <c r="C5" t="s" s="10">
-        <v>120</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="A5" t="s" s="9">
+        <v>153</v>
+      </c>
+      <c r="B5" t="s" s="10">
+        <v>154</v>
+      </c>
+      <c r="C5" t="s" s="11">
+        <v>155</v>
+      </c>
+      <c r="D5" t="s" s="12">
+        <v>156</v>
+      </c>
+      <c r="E5" s="13">
         <v>1</v>
       </c>
-      <c r="E5" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="F5" t="s" s="10">
-        <v>121</v>
+      <c r="F5" t="s" s="12">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s" s="12">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="F4" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="F5" r:id="rId3" location="" tooltip="" display=""/>
+    <hyperlink ref="G3" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="G4" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="G5" r:id="rId3" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -2997,32 +3272,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F4"/>
+  <dimension ref="A2:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.5547" style="16" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="5.64844" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.5781" style="16" customWidth="1"/>
-    <col min="6" max="6" width="78.1953" style="16" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="16" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="19" customWidth="1"/>
+    <col min="2" max="2" width="7.76562" style="19" customWidth="1"/>
+    <col min="3" max="3" width="19.5547" style="19" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="19" customWidth="1"/>
+    <col min="5" max="5" width="5.64844" style="19" customWidth="1"/>
+    <col min="6" max="6" width="10.5781" style="19" customWidth="1"/>
+    <col min="7" max="7" width="78.1953" style="19" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -3043,54 +3320,63 @@
       <c r="F2" t="s" s="3">
         <v>6</v>
       </c>
+      <c r="G2" t="s" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s" s="5">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>113</v>
-      </c>
-      <c r="D3" s="7">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>147</v>
+      </c>
+      <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s" s="6">
-        <v>114</v>
+      <c r="F3" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s" s="7">
+        <v>148</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>115</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>116</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="A4" t="s" s="9">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s" s="10">
+        <v>160</v>
+      </c>
+      <c r="C4" t="s" s="11">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>151</v>
+      </c>
+      <c r="E4" s="13">
         <v>2</v>
       </c>
-      <c r="E4" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s" s="10">
-        <v>117</v>
+      <c r="F4" t="s" s="12">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s" s="12">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="F4" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="G3" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="G4" r:id="rId2" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -3105,32 +3391,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F4"/>
+  <dimension ref="A2:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.2969" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="17" customWidth="1"/>
-    <col min="3" max="3" width="16.0781" style="17" customWidth="1"/>
-    <col min="4" max="4" width="4.22656" style="17" customWidth="1"/>
-    <col min="5" max="5" width="10.5781" style="17" customWidth="1"/>
-    <col min="6" max="6" width="74.75" style="17" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="17" customWidth="1"/>
+    <col min="1" max="1" width="16.2969" style="20" customWidth="1"/>
+    <col min="2" max="2" width="7.76562" style="20" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="20" customWidth="1"/>
+    <col min="4" max="4" width="16.0781" style="20" customWidth="1"/>
+    <col min="5" max="5" width="4.22656" style="20" customWidth="1"/>
+    <col min="6" max="6" width="10.5781" style="20" customWidth="1"/>
+    <col min="7" max="7" width="74.75" style="20" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -3151,53 +3439,62 @@
       <c r="F2" t="s" s="3">
         <v>6</v>
       </c>
+      <c r="G2" t="s" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s" s="5">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>126</v>
-      </c>
-      <c r="D3" s="7">
+        <v>164</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>165</v>
+      </c>
+      <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s" s="6">
-        <v>127</v>
+      <c r="F3" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s" s="7">
+        <v>166</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>128</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s" s="10">
-        <v>30</v>
+      <c r="A4" t="s" s="9">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s" s="10">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s" s="11">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s" s="12">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="G3" r:id="rId1" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -3212,30 +3509,33 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F4"/>
+  <dimension ref="A2:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="16.3516" style="18" customWidth="1"/>
-    <col min="4" max="4" width="6.67188" style="18" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="18" customWidth="1"/>
-    <col min="6" max="6" width="78.7891" style="18" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="18" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="21" customWidth="1"/>
+    <col min="2" max="2" width="7.76562" style="21" customWidth="1"/>
+    <col min="3" max="4" width="16.3516" style="21" customWidth="1"/>
+    <col min="5" max="5" width="6.67188" style="21" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="21" customWidth="1"/>
+    <col min="7" max="7" width="78.7891" style="21" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -3256,53 +3556,62 @@
       <c r="F2" t="s" s="3">
         <v>6</v>
       </c>
+      <c r="G2" t="s" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s" s="5">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>131</v>
-      </c>
-      <c r="D3" s="7">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>172</v>
+      </c>
+      <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s" s="6">
-        <v>132</v>
+      <c r="F3" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s" s="7">
+        <v>173</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>128</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s" s="10">
-        <v>30</v>
+      <c r="A4" t="s" s="9">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s" s="10">
+        <v>174</v>
+      </c>
+      <c r="C4" t="s" s="11">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s" s="12">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="G3" r:id="rId1" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -3317,32 +3626,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F5"/>
+  <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="26.9922" style="19" customWidth="1"/>
-    <col min="2" max="2" width="20.6406" style="19" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="19" customWidth="1"/>
-    <col min="4" max="4" width="5.67969" style="19" customWidth="1"/>
-    <col min="5" max="5" width="13.1719" style="19" customWidth="1"/>
-    <col min="6" max="6" width="83.8672" style="19" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="19" customWidth="1"/>
+    <col min="1" max="1" width="26.9922" style="22" customWidth="1"/>
+    <col min="2" max="2" width="7.76562" style="22" customWidth="1"/>
+    <col min="3" max="3" width="20.6406" style="22" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="22" customWidth="1"/>
+    <col min="5" max="5" width="5.67969" style="22" customWidth="1"/>
+    <col min="6" max="6" width="13.1719" style="22" customWidth="1"/>
+    <col min="7" max="7" width="83.8672" style="22" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -3363,75 +3674,87 @@
       <c r="F2" t="s" s="3">
         <v>6</v>
       </c>
+      <c r="G2" t="s" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s" s="5">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>135</v>
-      </c>
-      <c r="D3" s="7">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>178</v>
+      </c>
+      <c r="E3" s="8">
         <v>2</v>
       </c>
-      <c r="E3" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s" s="6">
-        <v>136</v>
+      <c r="F3" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s" s="7">
+        <v>179</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>137</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>138</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="A4" t="s" s="9">
+        <v>180</v>
+      </c>
+      <c r="B4" t="s" s="10">
+        <v>181</v>
+      </c>
+      <c r="C4" t="s" s="11">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>182</v>
+      </c>
+      <c r="E4" s="13">
         <v>1</v>
       </c>
-      <c r="E4" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s" s="10">
-        <v>139</v>
+      <c r="F4" t="s" s="12">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s" s="12">
+        <v>183</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>140</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>51</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="A5" t="s" s="9">
+        <v>184</v>
+      </c>
+      <c r="B5" t="s" s="10">
+        <v>185</v>
+      </c>
+      <c r="C5" t="s" s="11">
+        <v>66</v>
+      </c>
+      <c r="D5" s="13">
         <v>3076</v>
       </c>
-      <c r="D5" s="11">
+      <c r="E5" s="13">
         <v>1</v>
       </c>
-      <c r="E5" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="F5" t="s" s="10">
-        <v>141</v>
+      <c r="F5" t="s" s="12">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s" s="12">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="F4" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="F5" r:id="rId3" location="" tooltip="" display=""/>
+    <hyperlink ref="G3" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="G4" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="G5" r:id="rId3" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -3446,32 +3769,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F4"/>
+  <dimension ref="A2:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.5938" style="20" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="20" customWidth="1"/>
-    <col min="4" max="4" width="7.19531" style="20" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="20" customWidth="1"/>
-    <col min="6" max="6" width="82.7031" style="20" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="20" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="23" customWidth="1"/>
+    <col min="2" max="2" width="7.76562" style="23" customWidth="1"/>
+    <col min="3" max="3" width="19.5938" style="23" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="23" customWidth="1"/>
+    <col min="5" max="5" width="7.19531" style="23" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="23" customWidth="1"/>
+    <col min="7" max="7" width="82.7031" style="23" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -3492,54 +3817,63 @@
       <c r="F2" t="s" s="3">
         <v>6</v>
       </c>
+      <c r="G2" t="s" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s" s="5">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>144</v>
-      </c>
-      <c r="D3" s="7">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>190</v>
+      </c>
+      <c r="E3" s="8">
         <v>4</v>
       </c>
-      <c r="E3" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s" s="6">
-        <v>145</v>
+      <c r="F3" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s" s="7">
+        <v>191</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="8">
+      <c r="A4" t="s" s="9">
+        <v>192</v>
+      </c>
+      <c r="B4" t="s" s="10">
+        <v>193</v>
+      </c>
+      <c r="C4" t="s" s="11">
         <v>146</v>
       </c>
-      <c r="B4" t="s" s="9">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>147</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="D4" t="s" s="12">
+        <v>194</v>
+      </c>
+      <c r="E4" s="13">
         <v>2</v>
       </c>
-      <c r="E4" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s" s="10">
-        <v>148</v>
+      <c r="F4" t="s" s="12">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s" s="12">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="F4" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="G3" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="G4" r:id="rId2" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
@@ -3554,30 +3888,32 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F4"/>
+  <dimension ref="A2:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="21" customWidth="1"/>
-    <col min="2" max="2" width="21.7188" style="21" customWidth="1"/>
-    <col min="3" max="5" width="16.3516" style="21" customWidth="1"/>
-    <col min="6" max="6" width="86.4609" style="21" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="21" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="24" customWidth="1"/>
+    <col min="2" max="2" width="7.76562" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.7188" style="24" customWidth="1"/>
+    <col min="4" max="6" width="16.3516" style="24" customWidth="1"/>
+    <col min="7" max="7" width="86.4609" style="24" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -3598,54 +3934,63 @@
       <c r="F2" t="s" s="3">
         <v>6</v>
       </c>
+      <c r="G2" t="s" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s" s="5">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>135</v>
-      </c>
-      <c r="D3" s="7">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>178</v>
+      </c>
+      <c r="E3" s="8">
         <v>8</v>
       </c>
-      <c r="E3" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s" s="6">
-        <v>136</v>
+      <c r="F3" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s" s="7">
+        <v>179</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>150</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>151</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="A4" t="s" s="9">
+        <v>198</v>
+      </c>
+      <c r="B4" t="s" s="10">
+        <v>199</v>
+      </c>
+      <c r="C4" t="s" s="11">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>200</v>
+      </c>
+      <c r="E4" s="13">
         <v>2</v>
       </c>
-      <c r="E4" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s" s="10">
-        <v>152</v>
+      <c r="F4" t="s" s="12">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s" s="12">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="F4" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="G3" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="G4" r:id="rId2" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
